--- a/script/报备导入测试数据1条.xlsx
+++ b/script/报备导入测试数据1条.xlsx
@@ -479,17 +479,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仵鹏</t>
+          <t>战丽梅</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>供应商</t>
+          <t>自主招聘</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>测试11</t>
+          <t>管小芳</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -499,25 +499,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>兼职协议</t>
+          <t>实习协议</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>331127200308113474</t>
+          <t>371327199412051667</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13443649828</t>
+          <t>13323067599</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>44738.32033564815</v>
+        <v>44740.37900462963</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>林洁</t>
+          <t>李琳</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
